--- a/data/trans_dic/P1424_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1424_2016_2023-Habitat-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.08120078188277705</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07731263162668114</v>
+        <v>0.07731263162668113</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0488705083289581</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.008392968873997262</v>
+        <v>0.009068902836700589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04233260851099629</v>
+        <v>0.04248034290376673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05934898197687813</v>
+        <v>0.06276748633032841</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06505042179180391</v>
+        <v>0.06193477255505022</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03815751126558221</v>
+        <v>0.03921866897459668</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05799128064250054</v>
+        <v>0.05738819725041385</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02904084976978123</v>
+        <v>0.02876312982924371</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07893336152895722</v>
+        <v>0.07835531305263353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1048447400385293</v>
+        <v>0.1068312231598404</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09526639126397765</v>
+        <v>0.092937084323922</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06287393196674756</v>
+        <v>0.06203555479636546</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08102982624621129</v>
+        <v>0.08106712759239705</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.05948684533296376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07863248956797944</v>
+        <v>0.07863248956797945</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0368970471048017</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007836898277732884</v>
+        <v>0.007982414750665332</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0183007692069062</v>
+        <v>0.0190296538259192</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04521215808672037</v>
+        <v>0.04633682175782265</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06546969671670952</v>
+        <v>0.0651231919020492</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02896657037960563</v>
+        <v>0.02942799786698985</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04534148941031076</v>
+        <v>0.04453055397203055</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0219345622884864</v>
+        <v>0.02226800900046412</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03964337831146369</v>
+        <v>0.03957064751189191</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07669162884349158</v>
+        <v>0.07736110097238937</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09336446273026186</v>
+        <v>0.09347167588964254</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04666515309890038</v>
+        <v>0.04656472259286869</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06345331244211877</v>
+        <v>0.06237645824559889</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.04168766621361136</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.07496046369378621</v>
+        <v>0.0749604636937862</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01022099487942131</v>
+        <v>0.009783621305827765</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02546034199712462</v>
+        <v>0.02431956820449981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04942895445845992</v>
+        <v>0.04936308335657416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.09205759646988378</v>
+        <v>0.09225854662194652</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03223981121616339</v>
+        <v>0.03304821265543476</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06311029804527005</v>
+        <v>0.06368976711915543</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02981212309215569</v>
+        <v>0.03056023909834539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05758310711396991</v>
+        <v>0.05718444580496592</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08454119073999074</v>
+        <v>0.08380570514596201</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1338871199186999</v>
+        <v>0.1338990674312134</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05321178669880016</v>
+        <v>0.05331116252661074</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08827717718746499</v>
+        <v>0.0887486176957096</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.06223556193102268</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09922941749118641</v>
+        <v>0.09922941749118643</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04568970459939972</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0767796563630806</v>
+        <v>0.07677965636308058</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01745767784999985</v>
+        <v>0.01753100157856396</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03834075800198703</v>
+        <v>0.03798434033871795</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04773314884293883</v>
+        <v>0.04869647260264896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08502063691498013</v>
+        <v>0.08272214808009282</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03699357602198191</v>
+        <v>0.03648384116843927</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06646379148140794</v>
+        <v>0.06616564235993942</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04014786486482386</v>
+        <v>0.04193235515610066</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06796932351164565</v>
+        <v>0.06780267578985935</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07990954256911341</v>
+        <v>0.0801264257587699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1153099683275296</v>
+        <v>0.115965714774725</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05619718840480881</v>
+        <v>0.05634821328368679</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08796476141665223</v>
+        <v>0.08775822070172913</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.06553873947657765</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09172031521585312</v>
+        <v>0.09172031521585314</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04279951865960667</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01528863965427827</v>
+        <v>0.01459986068586912</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03616105996014975</v>
+        <v>0.03609592444890117</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05765423157027663</v>
+        <v>0.05781050143986246</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08304617485220098</v>
+        <v>0.08409566764212952</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03810540303391841</v>
+        <v>0.0378375865786657</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06272385470329021</v>
+        <v>0.06288982542300814</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02470115862377712</v>
+        <v>0.02458572784659229</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05031459263380577</v>
+        <v>0.04951473505714396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07513470468304569</v>
+        <v>0.07463086378288121</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1003626766211344</v>
+        <v>0.09981279560165233</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04796679554060271</v>
+        <v>0.04798867483148148</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07399701912572211</v>
+        <v>0.07345904241041243</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5664</v>
+        <v>6120</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29240</v>
+        <v>29342</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39932</v>
+        <v>42232</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>47664</v>
+        <v>45381</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51423</v>
+        <v>52853</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>82547</v>
+        <v>81688</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>19597</v>
+        <v>19409</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>54520</v>
+        <v>54121</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>70544</v>
+        <v>71880</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>69804</v>
+        <v>68097</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>84731</v>
+        <v>83602</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>115340</v>
+        <v>115393</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8013</v>
+        <v>8161</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19196</v>
+        <v>19961</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47152</v>
+        <v>48325</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>70015</v>
+        <v>69644</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59826</v>
+        <v>60779</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>96049</v>
+        <v>94331</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22427</v>
+        <v>22768</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>41583</v>
+        <v>41506</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79983</v>
+        <v>80681</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99846</v>
+        <v>99960</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>96380</v>
+        <v>96172</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>134415</v>
+        <v>132134</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7763</v>
+        <v>7431</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20317</v>
+        <v>19407</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>38802</v>
+        <v>38751</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74711</v>
+        <v>74874</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>49796</v>
+        <v>51045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>101580</v>
+        <v>102512</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22644</v>
+        <v>23212</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45951</v>
+        <v>45632</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66366</v>
+        <v>65788</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>108659</v>
+        <v>108669</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>82189</v>
+        <v>82342</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>142087</v>
+        <v>142846</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16368</v>
+        <v>16436</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>37960</v>
+        <v>37607</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49823</v>
+        <v>50828</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>94960</v>
+        <v>92393</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>73297</v>
+        <v>72287</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>140037</v>
+        <v>139409</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>37641</v>
+        <v>39314</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67294</v>
+        <v>67129</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83408</v>
+        <v>83634</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>128791</v>
+        <v>129523</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111346</v>
+        <v>111645</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>185339</v>
+        <v>184904</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>51895</v>
+        <v>49557</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>127564</v>
+        <v>127335</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>204358</v>
+        <v>204912</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>309814</v>
+        <v>313729</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>264409</v>
+        <v>262551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>455268</v>
+        <v>456473</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>83844</v>
+        <v>83453</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>177494</v>
+        <v>174672</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>266318</v>
+        <v>264532</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>374415</v>
+        <v>372364</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>332836</v>
+        <v>332988</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>537092</v>
+        <v>533187</v>
       </c>
     </row>
     <row r="24">
